--- a/dat/overlength.xlsx
+++ b/dat/overlength.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>Unnamed: 10</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>correct</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -519,7 +514,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -557,12 +552,9 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,7 +570,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -616,12 +608,9 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,7 +626,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -675,12 +664,9 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -696,7 +682,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -734,12 +720,9 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -755,7 +738,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -793,12 +776,9 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -814,7 +794,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -852,12 +832,9 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -873,7 +850,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -911,12 +888,9 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -932,7 +906,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -970,12 +944,9 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -991,7 +962,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1029,12 +1000,9 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1050,7 +1018,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1088,12 +1056,9 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1109,7 +1074,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1147,12 +1112,9 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1168,7 +1130,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1206,12 +1168,9 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1227,7 +1186,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -1265,12 +1224,9 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1286,7 +1242,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
@@ -1324,12 +1280,9 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1345,7 +1298,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
@@ -1383,12 +1336,9 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1404,7 +1354,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
@@ -1442,12 +1392,9 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1463,7 +1410,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -1501,12 +1448,9 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1522,7 +1466,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -1560,12 +1504,9 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1581,7 +1522,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -1619,12 +1560,9 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1640,7 +1578,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -1678,12 +1616,9 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1699,7 +1634,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -1737,12 +1672,9 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1758,7 +1690,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -1796,12 +1728,9 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1817,7 +1746,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -1855,12 +1784,9 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1876,7 +1802,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -1914,12 +1840,9 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1935,7 +1858,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -1973,12 +1896,9 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1994,7 +1914,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -2032,12 +1952,9 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2053,7 +1970,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -2091,12 +2008,9 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2112,7 +2026,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -2150,12 +2064,9 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2171,7 +2082,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -2209,12 +2120,9 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2230,7 +2138,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
@@ -2268,12 +2176,9 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2289,7 +2194,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
@@ -2327,12 +2232,9 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2348,7 +2250,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
@@ -2386,12 +2288,9 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2407,7 +2306,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
@@ -2445,12 +2344,9 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2466,7 +2362,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
@@ -2504,12 +2400,9 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2525,7 +2418,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
@@ -2563,12 +2456,9 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2584,7 +2474,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
@@ -2622,12 +2512,9 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2643,7 +2530,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -2681,12 +2568,9 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2702,7 +2586,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
@@ -2740,12 +2624,9 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2761,7 +2642,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
@@ -2799,12 +2680,9 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2820,7 +2698,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
@@ -2858,12 +2736,9 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2879,7 +2754,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
@@ -2922,12 +2797,9 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2943,7 +2815,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
@@ -2986,12 +2858,9 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3007,7 +2876,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
@@ -3046,12 +2915,9 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3067,7 +2933,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
@@ -3110,12 +2976,9 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3131,7 +2994,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
@@ -3174,12 +3037,9 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3195,7 +3055,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
@@ -3238,12 +3098,9 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3259,7 +3116,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
@@ -3302,12 +3159,9 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3323,7 +3177,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
@@ -3366,12 +3220,9 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3387,7 +3238,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
@@ -3430,12 +3281,9 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3451,7 +3299,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
@@ -3494,12 +3342,9 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3515,7 +3360,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
@@ -3558,12 +3403,9 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3579,7 +3421,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -3622,12 +3464,9 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3643,7 +3482,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -3686,12 +3525,9 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3707,7 +3543,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
@@ -3750,12 +3586,9 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3771,7 +3604,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -3814,12 +3647,9 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3835,7 +3665,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
@@ -3878,12 +3708,9 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3899,7 +3726,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
@@ -3942,12 +3769,9 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3963,7 +3787,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
@@ -4006,12 +3830,9 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4027,7 +3848,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
@@ -4070,12 +3891,9 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4091,7 +3909,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
@@ -4134,12 +3952,9 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4155,7 +3970,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
@@ -4198,12 +4013,9 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4219,7 +4031,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
@@ -4258,12 +4070,9 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4279,7 +4088,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
@@ -4318,12 +4127,9 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4339,7 +4145,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
@@ -4378,12 +4184,9 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4399,7 +4202,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
@@ -4438,12 +4241,9 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4459,7 +4259,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
@@ -4498,12 +4298,9 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4519,7 +4316,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
@@ -4558,12 +4355,9 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4579,7 +4373,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
@@ -4618,12 +4412,9 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4639,7 +4430,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
@@ -4678,12 +4469,9 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4699,7 +4487,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
@@ -4738,12 +4526,9 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4759,7 +4544,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
@@ -4798,12 +4583,9 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4819,7 +4601,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
@@ -4858,12 +4640,9 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4879,7 +4658,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
@@ -4918,12 +4697,9 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4939,7 +4715,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
@@ -4978,12 +4754,9 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4999,7 +4772,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
@@ -5038,12 +4811,9 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5059,7 +4829,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
@@ -5094,12 +4864,9 @@
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5115,7 +4882,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="inlineStr">
@@ -5154,12 +4921,9 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5175,7 +4939,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
@@ -5214,12 +4978,9 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5235,7 +4996,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
@@ -5274,12 +5035,9 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5295,7 +5053,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
@@ -5334,12 +5092,9 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5355,7 +5110,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
@@ -5394,12 +5149,9 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5415,7 +5167,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
@@ -5454,12 +5206,9 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5475,7 +5224,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" t="b">
         <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
@@ -5514,12 +5263,9 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5535,7 +5281,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" t="b">
         <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
@@ -5574,12 +5320,9 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5595,7 +5338,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" t="b">
         <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
@@ -5634,12 +5377,9 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5655,7 +5395,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
@@ -5694,12 +5434,9 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5715,7 +5452,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" t="b">
         <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
@@ -5754,12 +5491,9 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5775,7 +5509,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" t="b">
         <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
@@ -5814,12 +5548,9 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5835,7 +5566,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
@@ -5874,12 +5605,9 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5895,7 +5623,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" t="b">
         <v>1</v>
       </c>
       <c r="E91" t="inlineStr">
@@ -5934,12 +5662,9 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5955,7 +5680,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" t="b">
         <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
@@ -5994,12 +5719,9 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6015,7 +5737,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
@@ -6054,12 +5776,9 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6075,7 +5794,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" t="b">
         <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
@@ -6114,12 +5833,9 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6135,7 +5851,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
@@ -6174,12 +5890,9 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6195,7 +5908,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" t="b">
         <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
@@ -6234,12 +5947,9 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6255,7 +5965,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" t="b">
         <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
@@ -6294,12 +6004,9 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6315,7 +6022,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" t="b">
         <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
@@ -6354,12 +6061,9 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6375,7 +6079,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" t="b">
         <v>1</v>
       </c>
       <c r="E99" t="inlineStr">
@@ -6414,12 +6118,9 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6435,7 +6136,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" t="b">
         <v>1</v>
       </c>
       <c r="E100" t="inlineStr">
@@ -6474,12 +6175,9 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6495,7 +6193,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
@@ -6534,12 +6232,9 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6555,7 +6250,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
@@ -6594,12 +6289,9 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6615,7 +6307,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
@@ -6654,12 +6346,9 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6675,7 +6364,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" t="b">
         <v>1</v>
       </c>
       <c r="E104" t="inlineStr">
@@ -6714,12 +6403,9 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6735,7 +6421,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
@@ -6774,12 +6460,9 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105" t="inlineStr"/>
-      <c r="N105" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6795,7 +6478,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
@@ -6834,12 +6517,9 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6855,7 +6535,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
@@ -6894,12 +6574,9 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6915,7 +6592,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
@@ -6954,12 +6631,9 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6975,7 +6649,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
@@ -7014,12 +6688,9 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7035,7 +6706,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
@@ -7074,12 +6745,9 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7095,7 +6763,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
@@ -7134,12 +6802,9 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7155,7 +6820,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
@@ -7194,12 +6859,9 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7215,7 +6877,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
@@ -7254,12 +6916,9 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7275,7 +6934,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
@@ -7314,12 +6973,9 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7335,7 +6991,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
@@ -7374,12 +7030,9 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7395,7 +7048,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
@@ -7434,12 +7087,9 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7455,7 +7105,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
@@ -7494,12 +7144,9 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7515,7 +7162,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
@@ -7554,12 +7201,9 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7575,7 +7219,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
@@ -7614,12 +7258,9 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7635,7 +7276,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="inlineStr">
@@ -7674,12 +7315,9 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7695,7 +7333,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
@@ -7734,12 +7372,9 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7755,7 +7390,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
@@ -7794,12 +7429,9 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7815,7 +7447,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
@@ -7854,12 +7486,9 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7875,7 +7504,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="inlineStr">
@@ -7914,12 +7543,9 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7935,7 +7561,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
@@ -7974,12 +7600,9 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7995,7 +7618,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
@@ -8034,12 +7657,9 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8055,7 +7675,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
@@ -8094,12 +7714,9 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8115,7 +7732,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
@@ -8150,12 +7767,9 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8171,7 +7785,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
@@ -8206,12 +7820,9 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8227,7 +7838,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
@@ -8262,12 +7873,9 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8283,7 +7891,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
@@ -8318,12 +7926,9 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8339,7 +7944,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
@@ -8374,12 +7979,9 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8395,7 +7997,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="inlineStr">
@@ -8430,12 +8032,9 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8451,7 +8050,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="inlineStr">
@@ -8486,12 +8085,9 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8507,7 +8103,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
@@ -8542,12 +8138,9 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8563,7 +8156,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="inlineStr">
@@ -8598,12 +8191,9 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8619,7 +8209,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
@@ -8654,12 +8244,9 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8675,7 +8262,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
@@ -8710,12 +8297,9 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8731,7 +8315,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
@@ -8766,12 +8350,9 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8787,7 +8368,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="inlineStr">
@@ -8822,12 +8403,9 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8843,7 +8421,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="inlineStr">
@@ -8878,12 +8456,9 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8899,7 +8474,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="inlineStr">
@@ -8934,12 +8509,9 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8955,7 +8527,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="inlineStr">
@@ -8990,12 +8562,9 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9011,7 +8580,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="inlineStr">
@@ -9046,12 +8615,9 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9067,7 +8633,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
@@ -9102,12 +8668,9 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9123,7 +8686,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="inlineStr">
@@ -9158,12 +8721,9 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9179,7 +8739,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
@@ -9214,12 +8774,9 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9235,7 +8792,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
@@ -9270,12 +8827,9 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9291,7 +8845,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
@@ -9328,12 +8882,9 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9349,7 +8900,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
@@ -9386,12 +8937,9 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9407,7 +8955,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
@@ -9444,12 +8992,9 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9465,7 +9010,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="inlineStr">
@@ -9502,12 +9047,9 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9523,7 +9065,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="inlineStr">
@@ -9560,12 +9102,9 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9581,7 +9120,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="inlineStr">
@@ -9618,12 +9157,9 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9639,7 +9175,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="inlineStr">
@@ -9676,12 +9212,9 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9697,7 +9230,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
@@ -9734,12 +9267,9 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9755,7 +9285,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="inlineStr">
@@ -9792,12 +9322,9 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9813,7 +9340,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="inlineStr">
@@ -9850,12 +9377,9 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9871,7 +9395,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="inlineStr">
@@ -9908,12 +9432,9 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9929,7 +9450,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
@@ -9966,12 +9487,9 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9987,7 +9505,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="inlineStr">
@@ -10024,12 +9542,9 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10045,7 +9560,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
@@ -10082,12 +9597,9 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10103,7 +9615,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="inlineStr">
@@ -10140,12 +9652,9 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10161,7 +9670,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="inlineStr">
@@ -10198,12 +9707,9 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10219,7 +9725,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="inlineStr">
@@ -10256,12 +9762,9 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10277,7 +9780,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="inlineStr">
@@ -10314,12 +9817,9 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10335,7 +9835,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="inlineStr">
@@ -10372,12 +9872,9 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10393,7 +9890,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
@@ -10430,12 +9927,9 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10451,7 +9945,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
@@ -10488,12 +9982,9 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10509,7 +10000,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170" t="inlineStr">
@@ -10546,12 +10037,9 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10567,7 +10055,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="inlineStr">
@@ -10604,12 +10092,9 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10625,7 +10110,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="inlineStr">
@@ -10662,12 +10147,9 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10683,7 +10165,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="inlineStr">
@@ -10720,12 +10202,9 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10741,7 +10220,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174" t="inlineStr">
@@ -10778,12 +10257,9 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M174" t="inlineStr"/>
-      <c r="N174" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10799,7 +10275,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="inlineStr">
@@ -10836,12 +10312,9 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10857,7 +10330,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="inlineStr">
@@ -10894,12 +10367,9 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10915,7 +10385,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="inlineStr">
@@ -10952,12 +10422,9 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10973,7 +10440,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
@@ -11010,12 +10477,9 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11031,7 +10495,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
@@ -11068,12 +10532,9 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11089,7 +10550,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180" t="inlineStr">
@@ -11126,12 +10587,9 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11147,7 +10605,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
@@ -11184,12 +10642,9 @@
         </is>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11205,7 +10660,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="inlineStr">
@@ -11242,12 +10697,9 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11263,7 +10715,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="inlineStr">
@@ -11300,12 +10752,9 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11321,7 +10770,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="inlineStr">
@@ -11358,12 +10807,9 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11379,7 +10825,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185" t="inlineStr">
@@ -11416,12 +10862,9 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11437,7 +10880,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="inlineStr">
@@ -11474,12 +10917,9 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11495,7 +10935,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="inlineStr">
@@ -11532,12 +10972,9 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11553,7 +10990,7 @@
           <t>GPT3.5</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="inlineStr">
@@ -11590,12 +11027,9 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11611,7 +11045,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" t="b">
         <v>1</v>
       </c>
       <c r="E189" t="inlineStr">
@@ -11648,12 +11082,9 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11669,7 +11100,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" t="b">
         <v>1</v>
       </c>
       <c r="E190" t="inlineStr">
@@ -11706,12 +11137,9 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11727,7 +11155,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" t="b">
         <v>1</v>
       </c>
       <c r="E191" t="inlineStr">
@@ -11764,12 +11192,9 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11785,7 +11210,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" t="b">
         <v>1</v>
       </c>
       <c r="E192" t="inlineStr">
@@ -11822,12 +11247,9 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11843,7 +11265,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" t="b">
         <v>1</v>
       </c>
       <c r="E193" t="inlineStr">
@@ -11880,12 +11302,9 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11901,7 +11320,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" t="b">
         <v>1</v>
       </c>
       <c r="E194" t="inlineStr">
@@ -11938,12 +11357,9 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11959,7 +11375,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" t="b">
         <v>1</v>
       </c>
       <c r="E195" t="inlineStr">
@@ -11996,12 +11412,9 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12017,7 +11430,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" t="b">
         <v>1</v>
       </c>
       <c r="E196" t="inlineStr">
@@ -12054,12 +11467,9 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12075,7 +11485,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" t="b">
         <v>1</v>
       </c>
       <c r="E197" t="inlineStr">
@@ -12112,12 +11522,9 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12133,7 +11540,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" t="b">
         <v>1</v>
       </c>
       <c r="E198" t="inlineStr">
@@ -12170,12 +11577,9 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12191,7 +11595,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" t="b">
         <v>1</v>
       </c>
       <c r="E199" t="inlineStr">
@@ -12228,12 +11632,9 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199" t="inlineStr"/>
-      <c r="N199" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12249,7 +11650,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" t="b">
         <v>1</v>
       </c>
       <c r="E200" t="inlineStr">
@@ -12286,12 +11687,9 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12307,7 +11705,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" t="b">
         <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
@@ -12344,12 +11742,9 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12365,7 +11760,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" t="b">
         <v>1</v>
       </c>
       <c r="E202" t="inlineStr">
@@ -12402,12 +11797,9 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202" t="inlineStr"/>
-      <c r="N202" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12423,7 +11815,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" t="b">
         <v>1</v>
       </c>
       <c r="E203" t="inlineStr">
@@ -12460,12 +11852,9 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M203" t="inlineStr"/>
-      <c r="N203" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12481,7 +11870,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" t="b">
         <v>1</v>
       </c>
       <c r="E204" t="inlineStr">
@@ -12518,12 +11907,9 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12539,7 +11925,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" t="b">
         <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
@@ -12576,12 +11962,9 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12597,7 +11980,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" t="b">
         <v>1</v>
       </c>
       <c r="E206" t="inlineStr">
@@ -12634,12 +12017,9 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206" t="inlineStr"/>
-      <c r="N206" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12655,7 +12035,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" t="b">
         <v>1</v>
       </c>
       <c r="E207" t="inlineStr">
@@ -12692,12 +12072,9 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207" t="inlineStr"/>
-      <c r="N207" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12713,7 +12090,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" t="b">
         <v>1</v>
       </c>
       <c r="E208" t="inlineStr">
@@ -12750,12 +12127,9 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M208" t="inlineStr"/>
-      <c r="N208" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12771,7 +12145,7 @@
           <t>CoT</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" t="b">
         <v>1</v>
       </c>
       <c r="E209" t="inlineStr">
@@ -12808,12 +12182,9 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
